--- a/build/locales/multilanguage.xlsx
+++ b/build/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415">
   <si>
     <t>标记</t>
   </si>
@@ -1202,6 +1202,63 @@
   </si>
   <si>
     <t>转出ETH</t>
+  </si>
+  <si>
+    <t>dao_name_query</t>
+  </si>
+  <si>
+    <t>Search a dao by name</t>
+  </si>
+  <si>
+    <t>根据名称查询</t>
+  </si>
+  <si>
+    <t>dao_address_query</t>
+  </si>
+  <si>
+    <t>Search a dao by address</t>
+  </si>
+  <si>
+    <t>根据地址查询</t>
+  </si>
+  <si>
+    <t>dao_creator_query</t>
+  </si>
+  <si>
+    <t>Search daos by creator</t>
+  </si>
+  <si>
+    <t>根据创建者查询</t>
+  </si>
+  <si>
+    <t>input_dao_name_query</t>
+  </si>
+  <si>
+    <t>Input the name of dao</t>
+  </si>
+  <si>
+    <t>请输入dao名称</t>
+  </si>
+  <si>
+    <t>input_dao_address_query</t>
+  </si>
+  <si>
+    <t>Input the address of dao</t>
+  </si>
+  <si>
+    <t>请输入dao地址</t>
+  </si>
+  <si>
+    <t>input_dao_creator_query</t>
+  </si>
+  <si>
+    <t>getting</t>
+  </si>
+  <si>
+    <t>Getting</t>
+  </si>
+  <si>
+    <t>正在获取中</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1257,8 +1314,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,24 +1346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1312,15 +1370,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,17 +1393,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,26 +1429,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1401,6 +1458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1413,13 +1476,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,55 +1584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,13 +1602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,13 +1626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,7 +1653,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,6 +1669,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,26 +1712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1680,144 +1726,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2168,10 +2225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -3656,6 +3713,83 @@
         <v>395</v>
       </c>
     </row>
+    <row r="135" ht="18" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="136" ht="18" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" ht="18" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138" ht="18" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="139" ht="18" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" ht="18" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" ht="18" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
